--- a/Agosto/08 agosto/parral/LISTA DE ASPIRANTES_ITPARRAL.xlsx
+++ b/Agosto/08 agosto/parral/LISTA DE ASPIRANTES_ITPARRAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollo01\Documents\Desarrollo Académico Nov. 2018\Coordinación Orientación Educativa\Atención a la demanda\2024\2-2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Agosto\08 agosto\parral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_095A6748631C3811F575BC08B712924CD2850C3D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C67CE56-CAEA-4CA8-9CAC-A966934ED083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVALUATEC" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="246">
   <si>
     <t>FICHA</t>
   </si>
@@ -771,13 +771,16 @@
   </si>
   <si>
     <t>desarrollo@itparral.edu.mx</t>
+  </si>
+  <si>
+    <t>2024/08/08 09:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -829,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,6 +864,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -868,26 +872,26 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="23" formatCode="h:mm\ AM/PM"/>
+      <numFmt numFmtId="164" formatCode="h:mm\ AM/PM"/>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -919,8 +923,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla2" displayName="Tabla2" ref="A1:M71" totalsRowShown="0">
   <autoFilter ref="A1:M71" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M289">
-    <sortCondition ref="L1:L289"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M71">
+    <sortCondition ref="E1:E71"/>
   </sortState>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="FICHA"/>
@@ -942,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -982,7 +986,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1088,7 +1092,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1230,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1243,16 +1247,16 @@
   </sheetPr>
   <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="46.375" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
     <col min="6" max="6" width="39.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="1" customWidth="1"/>
@@ -1264,7 +1268,7 @@
     <col min="13" max="13" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1304,25 +1308,28 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="N1" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2171</v>
+        <v>2270</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>18</v>
@@ -1342,26 +1349,26 @@
       <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2174</v>
+        <v>2362</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -1381,26 +1388,26 @@
       <c r="L3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2241</v>
+        <v>2410</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -1422,24 +1429,24 @@
       </c>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2244</v>
+        <v>2527</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -1463,24 +1470,24 @@
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2247</v>
+        <v>2555</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -1502,24 +1509,24 @@
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2263</v>
+        <v>2565</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>18</v>
@@ -1541,24 +1548,24 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2266</v>
+        <v>2632</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -1580,18 +1587,18 @@
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2270</v>
+        <v>2712</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
         <v>49</v>
@@ -1619,24 +1626,24 @@
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2278</v>
+        <v>2746</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
@@ -1658,24 +1665,24 @@
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2295</v>
+        <v>2926</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>18</v>
@@ -1697,24 +1704,24 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2317</v>
+        <v>2927</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>18</v>
@@ -1736,24 +1743,24 @@
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2343</v>
+        <v>2939</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>18</v>
@@ -1775,18 +1782,18 @@
       </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2362</v>
+        <v>2940</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>184</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>185</v>
       </c>
       <c r="E14" t="s">
         <v>49</v>
@@ -1814,24 +1821,24 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2364</v>
+        <v>2949</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -1853,18 +1860,18 @@
       </c>
       <c r="M15" s="3"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2410</v>
+        <v>2951</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
         <v>49</v>
@@ -1892,24 +1899,24 @@
       </c>
       <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2501</v>
+        <v>2955</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -1931,18 +1938,18 @@
       </c>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2527</v>
+        <v>2958</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="D18" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
         <v>49</v>
@@ -1970,24 +1977,24 @@
       </c>
       <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2552</v>
+        <v>2963</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>18</v>
@@ -2009,24 +2016,24 @@
       </c>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2555</v>
+        <v>2975</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>237</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>18</v>
@@ -2048,24 +2055,24 @@
       </c>
       <c r="M20" s="3"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2565</v>
+        <v>2977</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>242</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>243</v>
       </c>
       <c r="D21" t="s">
-        <v>88</v>
+        <v>244</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>241</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>18</v>
@@ -2087,24 +2094,24 @@
       </c>
       <c r="M21" s="3"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2590</v>
+        <v>2171</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>18</v>
@@ -2124,26 +2131,26 @@
       <c r="L22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2621</v>
+        <v>2244</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>18</v>
@@ -2165,24 +2172,24 @@
       </c>
       <c r="M23" s="3"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2632</v>
+        <v>2247</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>18</v>
@@ -2204,24 +2211,24 @@
       </c>
       <c r="M24" s="3"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2673</v>
+        <v>2263</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>18</v>
@@ -2243,24 +2250,24 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2712</v>
+        <v>2743</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>18</v>
@@ -2282,18 +2289,18 @@
       </c>
       <c r="M26" s="3"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2743</v>
+        <v>2914</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
         <v>16</v>
@@ -2321,24 +2328,24 @@
       </c>
       <c r="M27" s="3"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2746</v>
+        <v>2915</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>18</v>
@@ -2360,447 +2367,447 @@
       </c>
       <c r="M28" s="3"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>2295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2364</v>
+      </c>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2673</v>
+      </c>
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2917</v>
+      </c>
+      <c r="B32" t="s">
+        <v>144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2973</v>
+      </c>
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
+      <c r="D33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2241</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2278</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2343</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2501</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2552</v>
+      </c>
+      <c r="B38" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2621</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2792</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B40" t="s">
         <v>112</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C40" t="s">
         <v>113</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D40" t="s">
         <v>114</v>
-      </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J29" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30">
-        <v>2863</v>
-      </c>
-      <c r="B30" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31">
-        <v>2869</v>
-      </c>
-      <c r="B31" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" t="s">
-        <v>120</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>122</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32">
-        <v>2875</v>
-      </c>
-      <c r="B32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33">
-        <v>2904</v>
-      </c>
-      <c r="B33" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J33" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34">
-        <v>2911</v>
-      </c>
-      <c r="B34" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" t="s">
-        <v>130</v>
-      </c>
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35">
-        <v>2912</v>
-      </c>
-      <c r="B35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E35" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36">
-        <v>2914</v>
-      </c>
-      <c r="B36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37">
-        <v>2915</v>
-      </c>
-      <c r="B37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J37" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38">
-        <v>2916</v>
-      </c>
-      <c r="B38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J38" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39">
-        <v>2917</v>
-      </c>
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" t="s">
-        <v>58</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40">
-        <v>2919</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>149</v>
       </c>
       <c r="E40" t="s">
         <v>30</v>
@@ -2828,24 +2835,24 @@
       </c>
       <c r="M40" s="3"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2920</v>
+        <v>2863</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>18</v>
@@ -2867,24 +2874,24 @@
       </c>
       <c r="M41" s="3"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="B42" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C42" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>18</v>
@@ -2906,24 +2913,24 @@
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2922</v>
+        <v>2931</v>
       </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C43" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>18</v>
@@ -2945,24 +2952,24 @@
       </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2925</v>
+        <v>2945</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="C44" t="s">
-        <v>160</v>
+        <v>193</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>18</v>
@@ -2984,24 +2991,24 @@
       </c>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2926</v>
+        <v>2947</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="C45" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>18</v>
@@ -3023,24 +3030,24 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2927</v>
+        <v>2954</v>
       </c>
       <c r="B46" t="s">
-        <v>165</v>
+        <v>210</v>
       </c>
       <c r="C46" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="D46" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>18</v>
@@ -3062,18 +3069,18 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2931</v>
+        <v>2972</v>
       </c>
       <c r="B47" t="s">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="D47" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
         <v>30</v>
@@ -3101,24 +3108,24 @@
       </c>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2932</v>
+        <v>2266</v>
       </c>
       <c r="B48" t="s">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>18</v>
@@ -3140,24 +3147,24 @@
       </c>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2933</v>
+        <v>2317</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>61</v>
       </c>
       <c r="E49" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>18</v>
@@ -3179,259 +3186,259 @@
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>2875</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2941</v>
+      </c>
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" t="s">
+        <v>187</v>
+      </c>
+      <c r="D51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2942</v>
+      </c>
+      <c r="B52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2869</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2911</v>
+      </c>
+      <c r="B54" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" t="s">
+        <v>131</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54" t="s">
+        <v>122</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2912</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" t="s">
+        <v>122</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="10">
+        <v>45510</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="11">
+        <v>45512</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>2934</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
         <v>177</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>178</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D56" t="s">
         <v>179</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E56" t="s">
         <v>121</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F56" t="s">
         <v>122</v>
       </c>
-      <c r="G50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J50" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51">
-        <v>2939</v>
-      </c>
-      <c r="B51" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" t="s">
-        <v>182</v>
-      </c>
-      <c r="E51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J51" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52">
-        <v>2940</v>
-      </c>
-      <c r="B52" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" t="s">
-        <v>185</v>
-      </c>
-      <c r="E52" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J52" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53">
-        <v>2941</v>
-      </c>
-      <c r="B53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C53" t="s">
-        <v>187</v>
-      </c>
-      <c r="D53" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J53" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L53" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54">
-        <v>2942</v>
-      </c>
-      <c r="B54" t="s">
-        <v>189</v>
-      </c>
-      <c r="C54" t="s">
-        <v>190</v>
-      </c>
-      <c r="D54" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I54" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J54" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55">
-        <v>2945</v>
-      </c>
-      <c r="B55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" t="s">
-        <v>194</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="10">
-        <v>45510</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J55" s="11">
-        <v>45512</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56">
-        <v>2946</v>
-      </c>
-      <c r="B56" t="s">
-        <v>195</v>
-      </c>
-      <c r="C56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" t="s">
-        <v>92</v>
-      </c>
-      <c r="F56" t="s">
-        <v>93</v>
-      </c>
       <c r="G56" s="1" t="s">
         <v>18</v>
       </c>
@@ -3452,24 +3459,24 @@
       </c>
       <c r="M56" s="3"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2947</v>
+        <v>2968</v>
       </c>
       <c r="B57" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="C57" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D57" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>18</v>
@@ -3491,24 +3498,24 @@
       </c>
       <c r="M57" s="3"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2949</v>
+        <v>2174</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>22</v>
       </c>
       <c r="C58" t="s">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D58" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>18</v>
@@ -3528,26 +3535,26 @@
       <c r="L58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="M58" s="9"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2951</v>
+        <v>2920</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="E59" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>18</v>
@@ -3569,18 +3576,18 @@
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2953</v>
+        <v>2921</v>
       </c>
       <c r="B60" t="s">
-        <v>207</v>
+        <v>153</v>
       </c>
       <c r="C60" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="D60" t="s">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="E60" t="s">
         <v>25</v>
@@ -3608,24 +3615,24 @@
       </c>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2954</v>
+        <v>2922</v>
       </c>
       <c r="B61" t="s">
-        <v>210</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>158</v>
       </c>
       <c r="E61" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>18</v>
@@ -3647,24 +3654,24 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2955</v>
+        <v>2925</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>159</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="D62" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="E62" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>18</v>
@@ -3686,24 +3693,24 @@
       </c>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2958</v>
+        <v>2953</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C63" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>18</v>
@@ -3725,7 +3732,7 @@
       </c>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2959</v>
       </c>
@@ -3764,18 +3771,18 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2962</v>
+        <v>2590</v>
       </c>
       <c r="B65" t="s">
-        <v>222</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>90</v>
       </c>
       <c r="D65" t="s">
-        <v>224</v>
+        <v>91</v>
       </c>
       <c r="E65" t="s">
         <v>92</v>
@@ -3803,24 +3810,24 @@
       </c>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2963</v>
+        <v>2904</v>
       </c>
       <c r="B66" t="s">
-        <v>225</v>
+        <v>126</v>
       </c>
       <c r="C66" t="s">
-        <v>226</v>
+        <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>18</v>
@@ -3842,24 +3849,24 @@
       </c>
       <c r="M66" s="3"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2968</v>
+        <v>2916</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="E67" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="F67" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>18</v>
@@ -3881,24 +3888,24 @@
       </c>
       <c r="M67" s="3"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2972</v>
+        <v>2932</v>
       </c>
       <c r="B68" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>18</v>
@@ -3920,24 +3927,24 @@
       </c>
       <c r="M68" s="3"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2973</v>
+        <v>2933</v>
       </c>
       <c r="B69" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>236</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="F69" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>18</v>
@@ -3959,24 +3966,24 @@
       </c>
       <c r="M69" s="3"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2975</v>
+        <v>2946</v>
       </c>
       <c r="B70" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C70" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D70" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="E70" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="F70" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>18</v>
@@ -3998,24 +4005,24 @@
       </c>
       <c r="M70" s="3"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2977</v>
+        <v>2962</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C71" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E71" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="F71" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>18</v>
